--- a/docs/azure/SDV_hackathon_codes.xlsx
+++ b/docs/azure/SDV_hackathon_codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipep\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\jordanchiu\maestro-challenge\docs\azure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0295FE2-C455-4566-89E8-C666550D0933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C4EEBE-A9FE-45E3-AC49-51D866333178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{F5B4E61C-861E-4537-96EE-737C7AC49F72}"/>
+    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7270" xr2:uid="{F5B4E61C-861E-4537-96EE-737C7AC49F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Codes</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>QXHOHIN1Z2F3IY9K02</t>
+  </si>
+  <si>
+    <t>Amadeus</t>
+  </si>
+  <si>
+    <t>Jordan</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F73B06E-30A6-494D-A7C5-D1AF39E30C6C}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -534,6 +542,9 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -565,29 +576,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/azure/SDV_hackathon_codes.xlsx
+++ b/docs/azure/SDV_hackathon_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\jordanchiu\maestro-challenge\docs\azure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C4EEBE-A9FE-45E3-AC49-51D866333178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E4EC94-C44B-4AC7-9687-DD13435B0C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7270" xr2:uid="{F5B4E61C-861E-4537-96EE-737C7AC49F72}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F5B4E61C-861E-4537-96EE-737C7AC49F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Codes</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Jordan</t>
+  </si>
+  <si>
+    <t>IAV</t>
   </si>
 </sst>
 </file>
@@ -481,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F73B06E-30A6-494D-A7C5-D1AF39E30C6C}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,6 +505,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
